--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D14BB-683C-4466-B442-063C45D7079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E3034A-F4D5-42B6-ADBC-E904A850021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,12 +119,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tripod_id</t>
+    <t xml:space="preserve"> * 트라이포드 테이블과 이펙트 테이블을 매핑한 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이포드-이펙트 매핑 테이블의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_info_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>트라이포드 테이블</t>
+      <t>트라이포드 정보 key</t>
     </r>
     <r>
       <rPr>
@@ -143,68 +143,134 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Tripod_Table.xlsx)</t>
+      <t xml:space="preserve"> (Tripod_Info_Table.xlsx의 PK)</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> * 트라이포드 테이블과 이펙트 테이블을 매핑한 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라이포드-이펙트 매핑 테이블의 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 속성 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경직 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[WATER]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 35]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉기참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 매개변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"weak_point" : 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/내려치는 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/3T/빠른준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/3T/최후의 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T1_1</t>
+  </si>
+  <si>
+    <t>LM_18_T1_2</t>
+  </si>
+  <si>
+    <t>LM_18_T2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T2_1</t>
+  </si>
+  <si>
+    <t>LM_18_T2_2</t>
+  </si>
+  <si>
+    <t>LM_18_T3_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"stagger" : 41}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“cri_hit_dmg_increase” : 8.0, “duration” : 16.0}</t>
+  </si>
+  <si>
+    <t>{“area_decrease” : 20 }</t>
+  </si>
+  <si>
+    <t>{“anim_start” : 1.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“vfx_color” : FFFDD6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“duration” : 6.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/대지파괴 - 지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/대지파괴 - 이펙트 색상 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/집중공략 - 공격 범위 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/집중공략 - 연출 스킵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/약점공략 - 치명타 공격에 받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/뇌진탕 - 무력화 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/부위파괴 강화 - 부위파괴 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“area_decrease” : 20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“anim_res” : lm_skill_18_anim_var1.fbx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“vfx_res” : lm_skill_18_vfx_var1.fbx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“cool_down_minus” : 11.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“identity_gauge_use” : 1.0, “dmg_increase” : 190.4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +283,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +377,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +447,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -607,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,9 +712,6 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,9 +808,6 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +828,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,158 +1163,164 @@
   <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="61.796875" style="40" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="21"/>
+      <c r="C8" s="39">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23">
-        <v>2</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="23">
-        <v>3</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="22"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="41"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="41"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="41"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="41"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="41"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="41"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1"/>
@@ -1275,36 +1370,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.796875" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="8" customWidth="1"/>
-    <col min="13" max="15" width="15.69921875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="18.69921875" style="8" customWidth="1"/>
-    <col min="19" max="22" width="15.69921875" style="9" customWidth="1"/>
-    <col min="23" max="26" width="18.69921875" style="8" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="32.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" style="7" customWidth="1"/>
+    <col min="13" max="15" width="15.69921875" style="8" customWidth="1"/>
+    <col min="16" max="17" width="15.69921875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="18.69921875" style="7" customWidth="1"/>
+    <col min="19" max="22" width="15.69921875" style="8" customWidth="1"/>
+    <col min="23" max="26" width="18.69921875" style="7" customWidth="1"/>
     <col min="27" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1314,16 +1410,14 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1341,18 +1435,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="5"/>
       <c r="L2" s="1"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1370,15 +1453,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3051800</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1396,18 +1482,18 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3051801</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1425,18 +1511,24 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3051802</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1454,10 +1546,24 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
-      <c r="C6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3051803</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1474,13 +1580,26 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    <row r="7" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3051804</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1497,8 +1616,26 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3051805</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1516,7 +1653,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C9" s="5"/>
+      <c r="A9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3051806</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5509</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1534,7 +1685,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="5"/>
+      <c r="A10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3051807</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>47</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1552,13 +1714,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3051808</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>48</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1575,36 +1742,40 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C13" s="5"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3051809</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3051810</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1621,18 +1792,44 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+    <row r="14" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3051811</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="C15" s="5"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1649,18 +1846,18 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1677,52 +1874,6 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C17" s="5"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E3034A-F4D5-42B6-ADBC-E904A850021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC0B3-5E28-492E-AE18-98F8D549DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -36,8 +36,238 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>홍진선</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{0087126C-A565-4E70-B976-A59B8D81614B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">효과가 적용되는 조건 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(트라이포드 선택 후)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ALWAYS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 항상 적용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_CRITICAL_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 치명타 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_SKILL_USE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 사용 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WHILE_SKILL_CASTING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 시전 중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PERFECT_ZONE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 퍼펙트 존 성공 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>OVERCHARGE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 오버차지 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>USE_IDENTITY_GAUGE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 아이덴티티 게이지 소모 시
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +309,6 @@
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 COMMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,34 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청룡진/2T/대지파괴 - 지진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/대지파괴 - 이펙트 색상 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/집중공략 - 공격 범위 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/집중공략 - 연출 스킵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/1T/약점공략 - 치명타 공격에 받는 피해 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/1T/뇌진탕 - 무력화 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/1T/부위파괴 강화 - 부위파괴 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{“area_decrease” : 20}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +469,240 @@
   </si>
   <si>
     <t>{“identity_gauge_use” : 1.0, “dmg_increase” : 190.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/1T/반응 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_25_T1_0</t>
+  </si>
+  <si>
+    <t>LM_25_T1_1</t>
+  </si>
+  <si>
+    <t>LM_25_T1_2</t>
+  </si>
+  <si>
+    <t>LM_25_T2_0</t>
+  </si>
+  <si>
+    <t>LM_25_T2_1</t>
+  </si>
+  <si>
+    <t>LM_25_T2_2</t>
+  </si>
+  <si>
+    <t>LM_25_T3_0</t>
+  </si>
+  <si>
+    <t>LM_25_T3_1</t>
+  </si>
+  <si>
+    <t>적룡포/2T/단호한 의지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/1T/단단한 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/1T/화력 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/2T/진화하는 창술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/2T/파괴하는 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/3T/약점 포착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/3T/치명적인 조준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFECT_ZONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_IDENTITY_GAUGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/부위파괴 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/뇌진탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/1T/약점공략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/집중공략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/2T/대지파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위파괴 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 스킵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 색상 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 소모 후 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 회복량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 중 받는 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작 변경 (차지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가 (네임드 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 적중률 &amp; 치명타 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가 (퍼펙트 존)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가 (오버차지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 COMMENT (효과 요약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 COMMENT (스킬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>디버프 부여</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(치명타 공격에 받는 피해 증가)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 부여(지진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 적용되는 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERCHARGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE_SKILL_CASTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cast_spd_increase" : 30.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"identity_gauge_recover" : 45.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dmg_reduce" : 40.8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skill_type" : CHARGE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,12 +710,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +834,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -693,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,19 +1244,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,13 +1269,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,11 +1601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
+  <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1173,19 +1615,19 @@
     <col min="3" max="3" width="4.19921875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="61.796875" style="37" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="38" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="41" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1202,52 +1644,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>17</v>
+      <c r="F6" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1255,108 +1694,140 @@
         <v>5</v>
       </c>
       <c r="C7" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="39">
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="36">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="21"/>
+      <c r="C10" s="36">
+        <v>5</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="39"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="39"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="39"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="39"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="39"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="39"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="36"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="36"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1365,514 +1836,750 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.796875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="7" customWidth="1"/>
-    <col min="13" max="15" width="15.69921875" style="8" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="18.69921875" style="7" customWidth="1"/>
-    <col min="19" max="22" width="15.69921875" style="8" customWidth="1"/>
-    <col min="23" max="26" width="18.69921875" style="7" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="20.3984375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.8984375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="8" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="7" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="8" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C2" s="5"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3051800</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3051801</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3051802</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3051803</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3051804</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3051805</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3051806</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5509</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3051807</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3051808</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3051809</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3051810</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3051811</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D15" s="5"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3052500</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3052501</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5">
-        <v>3051800</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3051801</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3051802</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3051803</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3051804</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="47" t="s">
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3052502</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3051805</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3051806</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5509</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3051807</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="47" t="s">
+      <c r="F18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3052503</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3051808</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="47" t="s">
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3052504</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3052505</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3051809</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3051810</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="38" t="s">
+      <c r="F21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3052506</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3052507</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3052508</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3051811</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="38" t="s">
+      <c r="F24" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3052509</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3052510</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C15" s="5"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3052511</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC0B3-5E28-492E-AE18-98F8D549DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DCE60-0824-4E37-A6B0-2E5A484DEE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +703,14 @@
   </si>
   <si>
     <t>{"skill_type" : CHARGE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 폭 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hit_area_decrease" : 0.5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,15 +1267,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1279,6 +1278,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,11 +1629,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="38" t="s">
         <v>13</v>
       </c>
@@ -1842,21 +1850,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="21.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.8984375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="55.8984375" style="40" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
     <col min="9" max="11" width="15.69921875" style="8" customWidth="1"/>
     <col min="12" max="13" width="15.69921875" style="7" customWidth="1"/>
@@ -1923,10 +1931,10 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="5">
@@ -1938,7 +1946,7 @@
       <c r="F3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1"/>
@@ -1958,10 +1966,10 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="5">
@@ -1973,7 +1981,7 @@
       <c r="F4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
@@ -1993,10 +2001,10 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="5">
@@ -2008,7 +2016,7 @@
       <c r="F5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="41" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
@@ -2028,10 +2036,10 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="5">
@@ -2043,7 +2051,7 @@
       <c r="F6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1"/>
@@ -2063,10 +2071,10 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="5">
@@ -2079,7 +2087,7 @@
       <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="1"/>
@@ -2099,10 +2107,10 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="5">
@@ -2115,7 +2123,7 @@
       <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="1"/>
@@ -2135,10 +2143,10 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="5">
@@ -2153,7 +2161,7 @@
       <c r="F9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="1"/>
@@ -2173,10 +2181,10 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="5">
@@ -2188,7 +2196,7 @@
       <c r="F10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="41" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="1"/>
@@ -2208,10 +2216,10 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="5">
@@ -2223,7 +2231,7 @@
       <c r="F11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="41" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1"/>
@@ -2243,10 +2251,10 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="5">
@@ -2258,15 +2266,15 @@
       <c r="F12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="5">
@@ -2279,7 +2287,7 @@
       <c r="F13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1"/>
@@ -2299,10 +2307,10 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="5">
@@ -2315,7 +2323,7 @@
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="42" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="1"/>
@@ -2353,10 +2361,10 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="5">
@@ -2369,7 +2377,7 @@
       <c r="F16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="40" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="1"/>
@@ -2389,10 +2397,10 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="5">
@@ -2404,15 +2412,15 @@
       <c r="F17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="5">
@@ -2424,15 +2432,15 @@
       <c r="F18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="40" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="5">
@@ -2446,10 +2454,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="5">
@@ -2463,10 +2471,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="5">
@@ -2478,15 +2486,15 @@
       <c r="F21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="5">
@@ -2500,10 +2508,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="5">
@@ -2517,10 +2525,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="5">
@@ -2534,11 +2542,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>83</v>
+      <c r="B25" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="5">
         <v>3052509</v>
@@ -2549,35 +2557,55 @@
       <c r="F25" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="G25" s="40" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>82</v>
+      <c r="A26" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="C26" s="5">
         <v>3052510</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>81</v>
+      <c r="A27" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="5">
         <v>3052511</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3052512</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>88</v>
       </c>
     </row>

--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DCE60-0824-4E37-A6B0-2E5A484DEE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F63D8-D241-4F34-8981-94227D8646ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,28 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>디버프 부여</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(치명타 공격에 받는 피해 증가)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 부여(지진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apply_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +689,22 @@
   </si>
   <si>
     <t>{"hit_area_decrease" : 0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//트라이포드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 부여 - 치명타 공격에 받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 부여 - 지진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +716,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,25 +812,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -854,6 +831,39 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1149,34 +1159,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,12 +1244,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,26 +1253,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,188 +1637,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="37" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="61.796875" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="36">
+      <c r="B9" s="15"/>
+      <c r="C9" s="28">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>92</v>
+      <c r="D9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="36">
+      <c r="B10" s="15"/>
+      <c r="C10" s="28">
         <v>5</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="36"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="36"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="36"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="36"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="36"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C16" s="36"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="1"/>
@@ -1852,760 +1871,694 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.8984375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="7" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="8" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="16.796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.8984375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="42" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="47" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="42" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="42" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="47" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="42" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="44"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="44">
+        <v>3051800</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="44">
+        <v>3051801</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3051802</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="44">
+        <v>3051803</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+    </row>
+    <row r="7" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="44">
+        <v>3051804</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="44">
+        <v>3051805</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3051806</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="44">
+        <v>5509</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="44">
+        <v>3051807</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="44">
+        <v>3051808</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="44">
+        <v>3051809</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="44">
+        <v>3051810</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="44">
+        <v>3051811</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="44"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+    </row>
+    <row r="16" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="44">
+        <v>3052500</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="44">
+        <v>3052501</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="44">
+        <v>3052502</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="44">
+        <v>3052503</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="44">
+        <v>3052504</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="44">
+        <v>3052505</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="44">
+        <v>3052506</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="44">
+        <v>3052507</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3051800</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="44">
+        <v>3052508</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3051801</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="44">
+        <v>3052509</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3051802</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3051803</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G25" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="44">
+        <v>3052510</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3051804</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3051805</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3051806</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5509</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3051807</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3051808</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3051809</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3051810</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3051811</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3052500</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3052501</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3052502</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3052503</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3052504</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3052505</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3052506</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3052507</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3052508</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3052509</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3052510</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="39" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="44">
         <v>3052511</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="44">
         <v>3052512</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="44" t="s">
         <v>88</v>
       </c>
     </row>

--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F63D8-D241-4F34-8981-94227D8646ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632AEC3-9E08-4428-976C-7811C666B326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,22 +378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 매개변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM_18_T1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"weak_point" : 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청룡진/2T/내려치는 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,48 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"stagger" : 41}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“cri_hit_dmg_increase” : 8.0, “duration” : 16.0}</t>
-  </si>
-  <si>
-    <t>{“area_decrease” : 20 }</t>
-  </si>
-  <si>
-    <t>{“anim_start” : 1.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“vfx_color” : FFFDD6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“duration” : 6.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“area_decrease” : 20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“anim_res” : lm_skill_18_anim_var1.fbx}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“vfx_res” : lm_skill_18_vfx_var1.fbx}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“cool_down_minus” : 11.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“identity_gauge_use” : 1.0, “dmg_increase” : 190.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적룡포/1T/반응 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치명타 적중률 &amp; 치명타 피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적에게 주는 피해 증가 (퍼펙트 존)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -652,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과가 적용되는 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OVERCHARGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,34 +602,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cast_spd_increase" : 30.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"identity_gauge_recover" : 45.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"dmg_reduce" : 40.8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"skill_type" : CHARGE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 폭 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"hit_area_decrease" : 0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//트라이포드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,11 +618,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 부여 - 치명타 공격에 받는 피해 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디버프 부여 - 지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_SKILL_CAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_HIT, NAMED_UPPER_MONSTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 부여 
+- 치명타 공격에 받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[weak_point]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cri_hit_receive_dmg,duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[anim_start]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[area_decrease]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[vfx_color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[anim_res]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[vfx_res]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hit_area]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cooldown]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[identity_gauge,outgoing_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cast_spd]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[identity_gauge_recover]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[receive_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[outgoing_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[perfect_zone_outgoing_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[skill_type]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[overcharge_outgoing_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hit_area_width]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cri_rate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cri_dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8.0,16.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FFFDD6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[lm_skill_18_anim_var1.fbx]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[lm_skill_18_vfx_var1.fbx]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.0,190.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[45.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40.8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CHARGE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[58.6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[83.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[96.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[160.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>효과 적용 조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (트리거)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 매개변수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(배열 형식)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 인자 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(배열 형식)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,9 +1420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1253,15 +1444,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,17 +1477,38 @@
     <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1642,18 +1845,18 @@
     <col min="3" max="3" width="4.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="61.796875" style="28" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1682,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1696,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -1752,109 +1955,87 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="15"/>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>4</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="15"/>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="23" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="28"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="27">
+        <v>6</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="28"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="28"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
+      <c r="F11" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="28"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="28"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C16" s="28"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1869,697 +2050,812 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.8984375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="42" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="47" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="42" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="42" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="47" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="42"/>
+    <col min="1" max="1" width="16.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="41" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="38" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="38" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="41" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="38" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="39" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:22" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D2" s="40"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="40">
+        <v>3051800</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3051801</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+    </row>
+    <row r="5" spans="1:22" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="40">
+        <v>3051802</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="40">
+        <v>3051803</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+    </row>
+    <row r="7" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="40">
+        <v>3051804</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="40">
+        <v>3051805</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="40">
+        <v>3051806</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="40">
+        <v>5107</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="40">
+        <v>3051807</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="40">
+        <v>3051808</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="40">
+        <v>3051809</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="40">
+        <v>3051810</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="40">
+        <v>3051811</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+    </row>
+    <row r="16" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="40">
+        <v>3052500</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="H16" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="40">
+        <v>3052501</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-    </row>
-    <row r="2" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="44"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="H17" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="40">
+        <v>3052502</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="40">
+        <v>3052503</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="40">
+        <v>3052504</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="40">
+        <v>3052505</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="40">
+        <v>3052506</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="40">
+        <v>3052507</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="40">
+        <v>3052508</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="40">
+        <v>3052509</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="40">
+        <v>3052510</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="44">
-        <v>3051800</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="C27" s="40">
+        <v>3052511</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="44">
-        <v>3051801</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="44">
-        <v>3051802</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="44">
-        <v>3051803</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-    </row>
-    <row r="7" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="44">
-        <v>3051804</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="44">
-        <v>3051805</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="46" t="s">
+      <c r="C28" s="40">
+        <v>3052512</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="43" t="s">
+      <c r="F28" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="44">
-        <v>3051806</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="44">
-        <v>5509</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="46" t="s">
+      <c r="H28" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="40">
+        <v>3052513</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="44">
-        <v>3051807</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="43" t="s">
+      <c r="F29" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="44">
-        <v>3051808</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="44">
-        <v>3051809</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="44">
-        <v>3051810</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="44">
-        <v>3051811</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="44"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-    </row>
-    <row r="16" spans="1:22" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="44">
-        <v>3052500</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="44">
-        <v>3052501</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="44">
-        <v>3052502</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="44">
-        <v>3052503</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="44">
-        <v>3052504</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="44">
-        <v>3052505</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="44">
-        <v>3052506</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="44">
-        <v>3052507</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="44">
-        <v>3052508</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="44">
-        <v>3052509</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="44">
-        <v>3052510</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="44">
-        <v>3052511</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="44">
-        <v>3052512</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>88</v>
+      <c r="G29" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/TripodEffect_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E9097-4606-4D3E-9DF5-80AEA9D64D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EBB201-821A-492D-82F3-4B9D143C469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -428,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PERFECT_ZONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USE_IDENTITY_GAUGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,10 +529,6 @@
   </si>
   <si>
     <t>apply_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVERCHARGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,6 +887,14 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_PERFECT_ZONE_HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_OVERCHARGE_HIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +1791,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1905,13 +1905,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -1921,13 +1921,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -1936,11 +1936,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -2024,10 +2024,10 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -2039,13 +2039,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="12">
         <v>3051800</v>
@@ -2093,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="12">
         <v>3051801</v>
@@ -2130,13 +2130,13 @@
         <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="5" spans="1:22" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="12">
         <v>3051802</v>
@@ -2170,10 +2170,10 @@
         <v>42</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12">
         <v>3051803</v>
@@ -2204,13 +2204,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2230,7 +2230,7 @@
     <row r="7" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="12">
         <v>3051804</v>
@@ -2240,13 +2240,13 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12">
         <v>3051805</v>
@@ -2271,13 +2271,13 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="12">
         <v>3051806</v>
@@ -2304,10 +2304,10 @@
         <v>42</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2329,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12">
         <v>3051807</v>
@@ -2338,13 +2338,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12">
         <v>3051808</v>
@@ -2372,13 +2372,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12">
         <v>3051809</v>
@@ -2406,13 +2406,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -2420,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="12">
         <v>3051810</v>
@@ -2430,13 +2430,13 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12">
         <v>3051811</v>
@@ -2461,13 +2461,13 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="20"/>
@@ -2499,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12">
         <v>3052500</v>
@@ -2509,13 +2509,13 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2530,7 +2530,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12">
         <v>3052501</v>
@@ -2542,10 +2542,10 @@
         <v>42</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2553,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12">
         <v>3052502</v>
@@ -2562,13 +2562,13 @@
         <v>29</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2576,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="12">
         <v>3052503</v>
@@ -2585,18 +2585,18 @@
         <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12">
         <v>3052504</v>
@@ -2605,13 +2605,13 @@
         <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2619,7 +2619,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="12">
         <v>3052505</v>
@@ -2628,18 +2628,18 @@
         <v>31</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12">
         <v>3052506</v>
@@ -2648,18 +2648,18 @@
         <v>31</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12">
         <v>3052507</v>
@@ -2668,13 +2668,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2682,7 +2682,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12">
         <v>3052508</v>
@@ -2691,18 +2691,18 @@
         <v>32</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="12">
         <v>3052509</v>
@@ -2711,18 +2711,18 @@
         <v>32</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="12">
         <v>3052510</v>
@@ -2731,18 +2731,18 @@
         <v>32</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="12">
         <v>3052511</v>
@@ -2754,10 +2754,10 @@
         <v>42</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2765,7 +2765,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="12">
         <v>3052512</v>
@@ -2774,13 +2774,13 @@
         <v>33</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2788,7 +2788,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="12">
         <v>3052513</v>
@@ -2797,13 +2797,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
